--- a/scenarios-examples/not ready/steel_raw/data/units/calc_steel.xlsx
+++ b/scenarios-examples/not ready/steel_raw/data/units/calc_steel.xlsx
@@ -1,27 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tanzer/GitHub/Industry-NETs-Paper/data/steel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wajju/GitHub/BlackBlox/scenarios-examples/not ready/steel_raw/data/units/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ECCAFBF-C04F-8F42-893C-8AF2A5BB49FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37F7404E-E6CA-E444-8A8F-B0957878B7C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16460" yWindow="940" windowWidth="21380" windowHeight="17540" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16460" yWindow="940" windowWidth="21380" windowHeight="17540" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Coke" sheetId="1" r:id="rId1"/>
-    <sheet name="Lime" sheetId="4" r:id="rId2"/>
-    <sheet name="Pellets" sheetId="7" r:id="rId3"/>
-    <sheet name="Sinter" sheetId="5" r:id="rId4"/>
-    <sheet name="Iron" sheetId="8" r:id="rId5"/>
-    <sheet name="DRI" sheetId="18" r:id="rId6"/>
-    <sheet name="Steel" sheetId="3" r:id="rId7"/>
-    <sheet name="EAF" sheetId="17" r:id="rId8"/>
-    <sheet name="Finish" sheetId="12" r:id="rId9"/>
+    <sheet name="simple_coke" sheetId="1" r:id="rId1"/>
+    <sheet name="simple_pellets" sheetId="7" r:id="rId2"/>
+    <sheet name="simple_sinter" sheetId="5" r:id="rId3"/>
+    <sheet name="simple_BF" sheetId="8" r:id="rId4"/>
+    <sheet name="simple_DRI" sheetId="18" r:id="rId5"/>
+    <sheet name="simple_BOF" sheetId="3" r:id="rId6"/>
+    <sheet name="simple_EAF" sheetId="17" r:id="rId7"/>
+    <sheet name="simple_casting" sheetId="12" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="927" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="864" uniqueCount="140">
   <si>
     <t>combustion</t>
   </si>
@@ -83,9 +82,6 @@
     <t>CO2__emitted</t>
   </si>
   <si>
-    <t>CaCO3</t>
-  </si>
-  <si>
     <t>returnvalue</t>
   </si>
   <si>
@@ -149,33 +145,9 @@
     <t>ratio</t>
   </si>
   <si>
-    <t>calcination</t>
-  </si>
-  <si>
-    <t>Inflows</t>
-  </si>
-  <si>
     <t>CaO</t>
   </si>
   <si>
-    <t>Outflows</t>
-  </si>
-  <si>
-    <t>MolMassRatio</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>CO2__total</t>
-  </si>
-  <si>
-    <t>C to Slag</t>
-  </si>
-  <si>
-    <t>slag__CO2 from CaCO3</t>
-  </si>
-  <si>
     <t>secondary fuel</t>
   </si>
   <si>
@@ -443,9 +415,6 @@
     <t>CONSUMED coke oven use</t>
   </si>
   <si>
-    <t>lime kiln use</t>
-  </si>
-  <si>
     <t>pellet factory use</t>
   </si>
   <si>
@@ -477,9 +446,6 @@
   </si>
   <si>
     <t>CONSUMED pellet factory use</t>
-  </si>
-  <si>
-    <t>CONSUMED lime kiln use</t>
   </si>
   <si>
     <t>CONSUMED EAF use</t>
@@ -985,7 +951,7 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -997,34 +963,34 @@
   <sheetData>
     <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
@@ -1032,13 +998,13 @@
         <v>3</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>1</v>
@@ -1047,7 +1013,7 @@
         <v>8</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -1055,13 +1021,13 @@
         <v>3</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="C3" s="12" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>2</v>
@@ -1070,7 +1036,7 @@
         <v>8</v>
       </c>
       <c r="G3" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -1078,7 +1044,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>4</v>
@@ -1093,12 +1059,12 @@
         <v>7</v>
       </c>
       <c r="G4" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="12" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>3</v>
@@ -1107,7 +1073,7 @@
         <v>2</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="E5" s="9" t="s">
         <v>4</v>
@@ -1116,41 +1082,41 @@
         <v>7</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>4</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="12" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="C7" s="12" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>4</v>
@@ -1159,41 +1125,41 @@
         <v>7</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="12" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="C8" s="12" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="E8" s="12" t="s">
         <v>4</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>1</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>2</v>
@@ -1202,67 +1168,67 @@
         <v>8</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>1</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C11" s="23" t="s">
         <v>1</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F11" s="23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>1</v>
       </c>
       <c r="F12" s="23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1271,236 +1237,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" t="s">
-        <v>42</v>
-      </c>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" t="s">
-        <v>42</v>
-      </c>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="D8" t="s">
-        <v>133</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F8" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="J8" s="1"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="B9" t="s">
-        <v>133</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" s="25" t="s">
-        <v>145</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F9" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="J9" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J13"/>
   <sheetViews>
@@ -1516,34 +1252,34 @@
   <sheetData>
     <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
@@ -1551,13 +1287,13 @@
         <v>3</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>4</v>
@@ -1566,7 +1302,7 @@
         <v>8</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
@@ -1574,13 +1310,13 @@
         <v>3</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>4</v>
@@ -1594,13 +1330,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>4</v>
@@ -1609,7 +1345,7 @@
         <v>8</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
@@ -1617,13 +1353,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>4</v>
@@ -1632,7 +1368,7 @@
         <v>7</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
@@ -1640,13 +1376,13 @@
         <v>3</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>4</v>
@@ -1660,13 +1396,13 @@
         <v>3</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>4</v>
@@ -1677,16 +1413,16 @@
     </row>
     <row r="8" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>1</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>2</v>
@@ -1695,21 +1431,21 @@
         <v>8</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>1</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>2</v>
@@ -1718,21 +1454,21 @@
         <v>7</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>1</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>2</v>
@@ -1741,67 +1477,67 @@
         <v>8</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>1</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="C12" s="23" t="s">
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F12" s="23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="B13" t="s">
+        <v>124</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="25" t="s">
         <v>134</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D13" s="25" t="s">
-        <v>144</v>
-      </c>
       <c r="E13" s="3" t="s">
         <v>1</v>
       </c>
       <c r="F13" s="23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1809,7 +1545,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J13"/>
   <sheetViews>
@@ -1825,34 +1561,34 @@
   <sheetData>
     <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
@@ -1860,13 +1596,13 @@
         <v>3</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>4</v>
@@ -1875,7 +1611,7 @@
         <v>8</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
@@ -1883,13 +1619,13 @@
         <v>3</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>4</v>
@@ -1903,13 +1639,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>4</v>
@@ -1918,7 +1654,7 @@
         <v>8</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
@@ -1926,13 +1662,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>4</v>
@@ -1941,7 +1677,7 @@
         <v>7</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
@@ -1949,13 +1685,13 @@
         <v>3</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>4</v>
@@ -1969,13 +1705,13 @@
         <v>3</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>4</v>
@@ -1986,16 +1722,16 @@
     </row>
     <row r="8" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>1</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>2</v>
@@ -2004,21 +1740,21 @@
         <v>8</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>1</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>2</v>
@@ -2027,21 +1763,21 @@
         <v>7</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>1</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>2</v>
@@ -2050,67 +1786,67 @@
         <v>8</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>1</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C12" s="23" t="s">
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F12" s="23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="B13" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D13" s="25" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="E13" s="24" t="s">
         <v>1</v>
       </c>
       <c r="F13" s="23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -2118,7 +1854,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J24"/>
   <sheetViews>
@@ -2134,94 +1870,94 @@
   <sheetData>
     <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>2</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>2</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>4</v>
@@ -2230,21 +1966,21 @@
         <v>8</v>
       </c>
       <c r="G4" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>4</v>
@@ -2255,16 +1991,16 @@
     </row>
     <row r="6" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>4</v>
@@ -2273,21 +2009,21 @@
         <v>8</v>
       </c>
       <c r="G6" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>4</v>
@@ -2296,21 +2032,21 @@
         <v>7</v>
       </c>
       <c r="G7" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>2</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>4</v>
@@ -2321,16 +2057,16 @@
     </row>
     <row r="9" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>2</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>4</v>
@@ -2341,16 +2077,16 @@
     </row>
     <row r="10" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>1</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>4</v>
@@ -2359,21 +2095,21 @@
         <v>8</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="14" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>4</v>
@@ -2384,39 +2120,39 @@
     </row>
     <row r="12" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="14" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" s="14" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>4</v>
@@ -2425,24 +2161,24 @@
         <v>7</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A14" s="14" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F14" s="13" t="s">
         <v>0</v>
@@ -2450,19 +2186,19 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="14" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F15" s="13" t="s">
         <v>0</v>
@@ -2471,40 +2207,40 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="14" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="C16" s="14" t="s">
         <v>1</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="E16" s="15" t="s">
         <v>2</v>
       </c>
       <c r="F16" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G16" s="15" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="H16" s="1"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>1</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>2</v>
@@ -2513,27 +2249,27 @@
         <v>8</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>1</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
@@ -2541,22 +2277,22 @@
         <v>10</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="C19" s="10" t="s">
         <v>1</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E19" s="10" t="s">
         <v>2</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
@@ -2564,7 +2300,7 @@
         <v>10</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>2</v>
@@ -2576,7 +2312,7 @@
         <v>11</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
@@ -2584,13 +2320,13 @@
         <v>9</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>4</v>
@@ -2599,7 +2335,7 @@
         <v>5</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="I21" s="4" t="s">
         <v>2</v>
@@ -2610,7 +2346,7 @@
         <v>9</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>4</v>
@@ -2622,10 +2358,10 @@
         <v>11</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="I22" s="4" t="s">
         <v>1</v>
@@ -2633,42 +2369,42 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="C23" s="23" t="s">
         <v>1</v>
       </c>
       <c r="D23" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F23" s="23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="B24" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D24" s="25" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>1</v>
       </c>
       <c r="F24" s="23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -2676,7 +2412,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:J14"/>
   <sheetViews>
@@ -2692,134 +2428,134 @@
   <sheetData>
     <row r="1" spans="1:10" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="B2" s="18" t="s">
-        <v>127</v>
-      </c>
       <c r="C2" s="16" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="E2" s="16" t="s">
         <v>2</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B3" s="18" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E3" t="s">
         <v>2</v>
       </c>
       <c r="F3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G3" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B4" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E4" t="s">
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="C5" t="s">
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="E5" t="s">
         <v>2</v>
       </c>
       <c r="F5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G5" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B6" s="18" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="C6" t="s">
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="E6" t="s">
         <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
@@ -2827,13 +2563,13 @@
         <v>3</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>1</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>4</v>
@@ -2842,7 +2578,7 @@
         <v>8</v>
       </c>
       <c r="G7" s="17" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
@@ -2850,13 +2586,13 @@
         <v>3</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>4</v>
@@ -2865,7 +2601,7 @@
         <v>8</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
@@ -2873,13 +2609,13 @@
         <v>3</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>4</v>
@@ -2888,7 +2624,7 @@
         <v>7</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
@@ -2896,13 +2632,13 @@
         <v>3</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>2</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>4</v>
@@ -2916,13 +2652,13 @@
         <v>3</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>2</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>4</v>
@@ -2933,25 +2669,25 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="C12" s="20" t="s">
         <v>2</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>1</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="H12" s="18" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>1</v>
@@ -2959,42 +2695,42 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="C13" s="23" t="s">
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F13" s="23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="B14" t="s">
+        <v>126</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="25" t="s">
         <v>136</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D14" s="25" t="s">
-        <v>147</v>
-      </c>
       <c r="E14" s="3" t="s">
         <v>1</v>
       </c>
       <c r="F14" s="23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -3003,7 +2739,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:J19"/>
   <sheetViews>
@@ -3020,48 +2756,48 @@
   <sheetData>
     <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>2</v>
@@ -3070,21 +2806,21 @@
         <v>8</v>
       </c>
       <c r="G2" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="E3" s="14" t="s">
         <v>4</v>
@@ -3093,31 +2829,31 @@
         <v>8</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="C4" s="14" t="s">
         <v>4</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="E4" s="14" t="s">
         <v>2</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="G4" s="11"/>
       <c r="H4" s="14" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="I4" s="9" t="s">
         <v>2</v>
@@ -3125,26 +2861,26 @@
     </row>
     <row r="5" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>4</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="E5" s="9" t="s">
         <v>1</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="G5" s="11"/>
       <c r="H5" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I5" s="9" t="s">
         <v>1</v>
@@ -3152,16 +2888,16 @@
     </row>
     <row r="6" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>4</v>
@@ -3170,21 +2906,21 @@
         <v>8</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>4</v>
@@ -3195,16 +2931,16 @@
     </row>
     <row r="8" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>4</v>
@@ -3213,21 +2949,21 @@
         <v>8</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>4</v>
@@ -3236,47 +2972,47 @@
         <v>7</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
@@ -3284,22 +3020,22 @@
         <v>10</v>
       </c>
       <c r="B12" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F12" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>34</v>
-      </c>
       <c r="G12" s="5" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
@@ -3307,34 +3043,34 @@
         <v>10</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>1</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G13" s="5"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>1</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>2</v>
@@ -3343,110 +3079,110 @@
         <v>8</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>1</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B16" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F16" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F16" s="10" t="s">
-        <v>34</v>
-      </c>
       <c r="G16" s="10" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="C17" s="10" t="s">
         <v>2</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>1</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C18" s="23" t="s">
         <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F18" s="23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="B19" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D19" s="25" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>1</v>
       </c>
       <c r="F19" s="23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -3454,11 +3190,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
@@ -3470,77 +3206,77 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="D2" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="E2" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="F2" t="s">
         <v>8</v>
       </c>
       <c r="G2" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="E3" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="F3" t="s">
         <v>8</v>
       </c>
       <c r="G3" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -3548,33 +3284,33 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E4" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="F4" t="s">
         <v>8</v>
       </c>
       <c r="G4" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="C5" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="D5" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="E5" t="s">
         <v>4</v>
@@ -3583,21 +3319,21 @@
         <v>5</v>
       </c>
       <c r="H5" s="21" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="I5" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="E6" t="s">
         <v>4</v>
@@ -3606,15 +3342,15 @@
         <v>5</v>
       </c>
       <c r="H6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="I6" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
@@ -3623,39 +3359,39 @@
         <v>9</v>
       </c>
       <c r="E7" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="F7" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="H7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I7" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C8" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="D8" t="s">
         <v>12</v>
       </c>
       <c r="E8" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="F8" t="s">
         <v>8</v>
       </c>
       <c r="G8" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
@@ -3663,56 +3399,56 @@
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="D9" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="E9" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="F9" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C10" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="D10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E10" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="F10" t="s">
         <v>8</v>
       </c>
       <c r="G10" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="D11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E11" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="F11" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -3720,13 +3456,13 @@
         <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C12" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>4</v>
@@ -3735,7 +3471,7 @@
         <v>8</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
@@ -3743,13 +3479,13 @@
         <v>3</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>4</v>
@@ -3758,7 +3494,7 @@
         <v>8</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
@@ -3766,13 +3502,13 @@
         <v>3</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>4</v>
@@ -3781,7 +3517,7 @@
         <v>7</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
@@ -3789,13 +3525,13 @@
         <v>3</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="C15" s="9" t="s">
         <v>2</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>4</v>
@@ -3809,13 +3545,13 @@
         <v>3</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="C16" s="9" t="s">
         <v>2</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>4</v>
@@ -3826,82 +3562,82 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="B17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" t="s">
+        <v>92</v>
+      </c>
+      <c r="D17" t="s">
+        <v>63</v>
+      </c>
+      <c r="E17" t="s">
+        <v>65</v>
+      </c>
+      <c r="F17" t="s">
         <v>33</v>
       </c>
-      <c r="C17" t="s">
-        <v>101</v>
-      </c>
-      <c r="D17" t="s">
-        <v>72</v>
-      </c>
-      <c r="E17" t="s">
-        <v>74</v>
-      </c>
-      <c r="F17" t="s">
-        <v>34</v>
-      </c>
       <c r="G17" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="C18" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="D18" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="E18" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="F18" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="B19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C19" s="23" t="s">
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F19" s="23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="B20" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D20" s="25" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>1</v>
       </c>
       <c r="F20" s="23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -3909,199 +3645,199 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L35" sqref="L35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C2" s="18" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>1</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="8"/>
       <c r="B3" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>126</v>
-      </c>
-      <c r="E3" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="18" t="s">
-        <v>34</v>
-      </c>
       <c r="G3" s="18" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="8"/>
       <c r="B4" s="22" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="C4" s="22" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="E4" s="22" t="s">
         <v>1</v>
       </c>
       <c r="F4" s="22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G4" s="18"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="8"/>
       <c r="B5" s="22" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="C5" s="22" t="s">
         <v>1</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="E5" s="22" t="s">
         <v>2</v>
       </c>
       <c r="F5" s="22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G5" s="18"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="C6" t="s">
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E6" t="s">
         <v>2</v>
       </c>
       <c r="F6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B7" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
         <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E7" t="s">
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="C8" t="s">
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="E8" t="s">
         <v>2</v>
       </c>
       <c r="F8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B9" s="18" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="C9" t="s">
         <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="E9" t="s">
         <v>1</v>
       </c>
       <c r="F9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:7" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
@@ -4109,116 +3845,116 @@
         <v>10</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>1</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E10" s="9" t="s">
         <v>2</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="4"/>
       <c r="B11" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>1</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G11" s="5"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="C12" s="23" t="s">
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F12" s="23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="B13" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D13" s="25" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>1</v>
       </c>
       <c r="F13" s="23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="B14" s="26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D14" s="25" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F14" s="25" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B15" s="26" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D15" s="25" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>1</v>
       </c>
       <c r="F15" s="25" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
